--- a/サーバチェックシート.xlsx
+++ b/サーバチェックシート.xlsx
@@ -21,17 +21,17 @@
   <calcPr iterateDelta="0.0001"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1595226169" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1595226169" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1595226169" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1595226169"/>
+      <pm:revision xmlns:pm="smNativeData" day="1595658426" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1595658426" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1595658426" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1595658426"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="637">
   <si>
     <t>0. はじめに</t>
   </si>
@@ -408,6 +408,9 @@
     <t>選択プラットフォーム</t>
   </si>
   <si>
+    <t>プラットフォーム</t>
+  </si>
+  <si>
     <t>URL,IPアドレス</t>
   </si>
   <si>
@@ -420,6 +423,9 @@
     <t>接続オプション</t>
   </si>
   <si>
+    <t>platform</t>
+  </si>
+  <si>
     <t>user</t>
   </si>
   <si>
@@ -805,9 +811,6 @@
   </si>
   <si>
     <t>検査対象</t>
-  </si>
-  <si>
-    <t>プラットフォーム</t>
   </si>
   <si>
     <t>テストID</t>
@@ -1980,7 +1983,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1595226169" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1595658426" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -1995,7 +1998,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1595226169" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1595658426" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -2011,7 +2014,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1595226169" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1595658426" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -2027,7 +2030,7 @@
       <sz val="9"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1595226169" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1595658426" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ ゴシック" sz="180" lang="default"/>
             <pm:cs face="Times New Roman" sz="180" lang="default"/>
             <pm:ea face="SimSun" sz="180" lang="default"/>
@@ -2044,7 +2047,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1595226169" fgClr="3F3F3F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1595658426" fgClr="3F3F3F" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -2060,7 +2063,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1595226169" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1595658426" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ ゴシック" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -2076,7 +2079,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1595226169" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1595658426" ulstyle="none" kern="1">
             <pm:latin face="Meiryo UI" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -2085,7 +2088,7 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="26">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2098,7 +2101,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1595226169" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1595658426" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2109,7 +2112,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1595226169" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1595658426" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2120,7 +2123,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1595226169" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1595658426" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2131,7 +2134,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1595226169" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1595658426" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2142,7 +2145,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1595226169" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1595658426" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2153,7 +2156,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1595226169" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1595658426" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2164,7 +2167,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1595226169" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1595658426" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2175,7 +2178,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1595226169" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1595658426" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2186,7 +2189,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1595226169" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1595658426" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2197,7 +2200,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1595226169" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1595658426" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2208,7 +2211,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1595226169" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1595658426" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2219,7 +2222,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1595226169" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1595658426" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2230,7 +2233,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1595226169" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1595658426" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2241,7 +2244,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1595226169" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1595658426" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2252,7 +2255,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1595226169" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1595658426" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2263,7 +2266,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1595226169" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1595658426" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2274,7 +2277,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1595226169" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1595658426" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2285,7 +2288,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1595226169" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1595658426" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2302,30 +2305,8 @@
     <fill>
       <patternFill patternType="none"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1595226169" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1595226169" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="25">
+  <borders count="23">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -2341,7 +2322,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1595226169"/>
+          <pm:border xmlns:pm="smNativeData" id="1595658426"/>
         </ext>
       </extLst>
     </border>
@@ -2360,7 +2341,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1595226169">
+          <pm:border xmlns:pm="smNativeData" id="1595658426">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
@@ -2384,7 +2365,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1595226169"/>
+          <pm:border xmlns:pm="smNativeData" id="1595658426"/>
         </ext>
       </extLst>
     </border>
@@ -2403,7 +2384,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1595226169">
+          <pm:border xmlns:pm="smNativeData" id="1595658426">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2425,7 +2406,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1595226169">
+          <pm:border xmlns:pm="smNativeData" id="1595658426">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -2446,7 +2427,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1595226169">
+          <pm:border xmlns:pm="smNativeData" id="1595658426">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2468,7 +2449,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1595226169">
+          <pm:border xmlns:pm="smNativeData" id="1595658426">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2490,7 +2471,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1595226169">
+          <pm:border xmlns:pm="smNativeData" id="1595658426">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -2511,7 +2492,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1595226169">
+          <pm:border xmlns:pm="smNativeData" id="1595658426">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2533,7 +2514,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1595226169">
+          <pm:border xmlns:pm="smNativeData" id="1595658426">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -2557,7 +2538,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1595226169">
+          <pm:border xmlns:pm="smNativeData" id="1595658426">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -2581,7 +2562,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1595226169">
+          <pm:border xmlns:pm="smNativeData" id="1595658426">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -2604,7 +2585,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1595226169">
+          <pm:border xmlns:pm="smNativeData" id="1595658426">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -2627,7 +2608,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1595226169">
+          <pm:border xmlns:pm="smNativeData" id="1595658426">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2649,7 +2630,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1595226169">
+          <pm:border xmlns:pm="smNativeData" id="1595658426">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -2672,7 +2653,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1595226169">
+          <pm:border xmlns:pm="smNativeData" id="1595658426">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -2693,7 +2674,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1595226169">
+          <pm:border xmlns:pm="smNativeData" id="1595658426">
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -2714,7 +2695,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1595226169">
+          <pm:border xmlns:pm="smNativeData" id="1595658426">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -2738,7 +2719,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1595226169">
+          <pm:border xmlns:pm="smNativeData" id="1595658426">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -2762,7 +2743,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1595226169">
+          <pm:border xmlns:pm="smNativeData" id="1595658426">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -2785,7 +2766,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1595226169">
+          <pm:border xmlns:pm="smNativeData" id="1595658426">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -2809,7 +2790,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1595226169">
+          <pm:border xmlns:pm="smNativeData" id="1595658426">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -2832,47 +2813,9 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1595226169">
+          <pm:border xmlns:pm="smNativeData" id="1595658426">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1595226169"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1595226169"/>
         </ext>
       </extLst>
     </border>
@@ -3053,10 +2996,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1595226169" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1595658426" count="1">
         <pm:charStyle name="標準" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1595226169" count="4">
+      <pm:colors xmlns:pm="smNativeData" id="1595658426" count="4">
         <pm:color name="色 24" rgb="3F3F3F"/>
         <pm:color name="色 25" rgb="F2F2F2"/>
         <pm:color name="色 26" rgb="CCFFFF"/>
@@ -6296,7 +6239,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1595226169" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1595658426" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -6307,16 +6250,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1595226169" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1595226169" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1595226169" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1595226169" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1595658426" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1595658426" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1595658426" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1595658426" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1595226169" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1595658426" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -6330,7 +6273,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" zoomScale="105" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -6361,19 +6304,19 @@
         <v>26</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>24</v>
+        <v>125</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E2" s="24" t="s">
         <v>30</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H2" s="24" t="s">
         <v>49</v>
@@ -6382,7 +6325,7 @@
         <v>37</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -6393,7 +6336,7 @@
         <v>61</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>62</v>
@@ -6402,10 +6345,10 @@
         <v>63</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H3" s="26" t="s">
         <v>65</v>
@@ -6414,7 +6357,7 @@
         <v>66</v>
       </c>
       <c r="J3" s="26" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6422,7 +6365,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>78</v>
@@ -6431,7 +6374,7 @@
         <v>80</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
@@ -6446,14 +6389,14 @@
         <v>2</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
@@ -6468,7 +6411,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>90</v>
@@ -6477,7 +6420,7 @@
         <v>92</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
@@ -6492,14 +6435,14 @@
         <v>3</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="18" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
@@ -6514,19 +6457,19 @@
         <v>5</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I8" s="15" t="s">
         <v>79</v>
@@ -6538,10 +6481,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="18"/>
@@ -6558,16 +6501,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>87</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
@@ -6771,7 +6714,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1595226169" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1595658426" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -6782,16 +6725,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1595226169" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1595226169" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1595226169" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1595226169" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1595658426" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1595658426" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1595658426" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1595658426" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1595226169" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1595658426" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -6824,96 +6767,96 @@
   <sheetData>
     <row r="1" spans="1:28">
       <c r="A1" s="29" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H1" s="29" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I1" s="29" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="J1" s="29" t="s">
         <v>50</v>
       </c>
       <c r="K1" s="29" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L1" s="29" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M1" s="29" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="N1" s="29" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O1" s="29" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P1" s="29" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q1" s="29" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="R1" s="29" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="S1" s="29" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="T1" s="29" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="U1" s="29" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="V1" s="29" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="W1" s="29" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="X1" s="29" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Y1" s="29" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Z1" s="29" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AA1" s="29" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AB1" s="29" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:28">
       <c r="A2" s="29" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C2" s="29" t="s">
         <v>60</v>
@@ -6943,42 +6886,42 @@
       <c r="X2" s="29"/>
       <c r="Y2" s="29"/>
       <c r="Z2" s="29" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AA2" s="29" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AB2" s="29" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:28">
       <c r="A3" s="29" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
       <c r="E3" s="29" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I3" s="29"/>
       <c r="J3" s="29" t="s">
         <v>50</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L3" s="29"/>
       <c r="M3" s="29"/>
@@ -6997,15 +6940,15 @@
       <c r="Z3" s="29"/>
       <c r="AA3" s="29"/>
       <c r="AB3" s="29" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:28">
       <c r="A4" s="29" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C4" s="29"/>
       <c r="D4" s="29"/>
@@ -7013,48 +6956,48 @@
       <c r="F4" s="29"/>
       <c r="G4" s="29"/>
       <c r="H4" s="29" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="J4" s="29" t="s">
         <v>68</v>
       </c>
       <c r="K4" s="29" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L4" s="29" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M4" s="29" t="s">
         <v>69</v>
       </c>
       <c r="N4" s="29" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O4" s="29"/>
       <c r="P4" s="29" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q4" s="29" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="R4" s="29" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="S4" s="29" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="T4" s="29"/>
       <c r="U4" s="29" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="V4" s="29" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="W4" s="29" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="X4" s="29"/>
       <c r="Y4" s="29"/>
@@ -7066,10 +7009,10 @@
     </row>
     <row r="5" spans="1:28">
       <c r="A5" s="29" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
@@ -7077,42 +7020,42 @@
       <c r="F5" s="29"/>
       <c r="G5" s="29"/>
       <c r="H5" s="29" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I5" s="29" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="J5" s="29" t="s">
         <v>68</v>
       </c>
       <c r="K5" s="29" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L5" s="29" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M5" s="29" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="N5" s="29" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O5" s="29"/>
       <c r="P5" s="29" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q5" s="29" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="R5" s="29" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="S5" s="29" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="T5" s="29"/>
       <c r="U5" s="29" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="V5" s="29"/>
       <c r="W5" s="29"/>
@@ -7126,50 +7069,50 @@
     </row>
     <row r="6" spans="1:28">
       <c r="A6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H6" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="I6" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="J6" t="s">
         <v>76</v>
       </c>
       <c r="M6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="N6" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P6" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AB6" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:28">
       <c r="A7" s="29" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
       <c r="E7" s="29" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
@@ -7179,14 +7122,14 @@
       <c r="M7" s="29"/>
       <c r="N7" s="29"/>
       <c r="O7" s="29" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P7" s="29"/>
       <c r="Q7" s="29"/>
       <c r="R7" s="29"/>
       <c r="S7" s="29"/>
       <c r="T7" s="29" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="U7" s="29"/>
       <c r="V7" s="29"/>
@@ -7196,15 +7139,15 @@
       <c r="Z7" s="29"/>
       <c r="AA7" s="29"/>
       <c r="AB7" s="29" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:28">
       <c r="A8" s="29" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
@@ -7219,14 +7162,14 @@
       <c r="M8" s="29"/>
       <c r="N8" s="29"/>
       <c r="O8" s="29" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P8" s="29"/>
       <c r="Q8" s="29"/>
       <c r="R8" s="29"/>
       <c r="S8" s="29"/>
       <c r="T8" s="29" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="U8" s="29"/>
       <c r="V8" s="29"/>
@@ -7236,26 +7179,26 @@
       <c r="Z8" s="29"/>
       <c r="AA8" s="29"/>
       <c r="AB8" s="29" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:28">
       <c r="A9" s="29" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
       <c r="E9" s="29" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H9" s="29"/>
       <c r="I9" s="29"/>
@@ -7265,14 +7208,14 @@
       <c r="M9" s="29"/>
       <c r="N9" s="29"/>
       <c r="O9" s="29" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P9" s="29"/>
       <c r="Q9" s="29"/>
       <c r="R9" s="29"/>
       <c r="S9" s="29"/>
       <c r="T9" s="29" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="U9" s="29"/>
       <c r="V9" s="29"/>
@@ -7282,27 +7225,27 @@
       <c r="Z9" s="29"/>
       <c r="AA9" s="29"/>
       <c r="AB9" s="29" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:28">
       <c r="A10" s="29" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C10" s="29"/>
       <c r="D10" s="29"/>
       <c r="E10" s="29" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F10" s="29"/>
       <c r="G10" s="29" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I10" s="29"/>
       <c r="J10" s="29" t="s">
@@ -7311,7 +7254,7 @@
       <c r="K10" s="29"/>
       <c r="L10" s="29"/>
       <c r="M10" s="29" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="N10" s="29"/>
       <c r="O10" s="29"/>
@@ -7328,15 +7271,15 @@
       <c r="Z10" s="29"/>
       <c r="AA10" s="29"/>
       <c r="AB10" s="29" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:28">
       <c r="A11" s="29" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
@@ -7344,40 +7287,40 @@
       <c r="F11" s="29"/>
       <c r="G11" s="29"/>
       <c r="H11" s="29" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="I11" s="29" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="J11" s="29" t="s">
         <v>68</v>
       </c>
       <c r="K11" s="29" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L11" s="29" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M11" s="29" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="N11" s="29" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O11" s="29"/>
       <c r="P11" s="29" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q11" s="29" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="R11" s="29" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="S11" s="29"/>
       <c r="T11" s="29"/>
       <c r="U11" s="29" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="V11" s="29"/>
       <c r="W11" s="29"/>
@@ -7386,24 +7329,24 @@
       <c r="Z11" s="29"/>
       <c r="AA11" s="29"/>
       <c r="AB11" s="29" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:28">
       <c r="A12" s="29" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C12" s="29"/>
       <c r="D12" s="29"/>
       <c r="E12" s="29" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F12" s="29"/>
       <c r="G12" s="29" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H12" s="29"/>
       <c r="I12" s="29"/>
@@ -7418,7 +7361,7 @@
       <c r="R12" s="29"/>
       <c r="S12" s="29"/>
       <c r="T12" s="29" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="U12" s="29"/>
       <c r="V12" s="29"/>
@@ -7428,27 +7371,27 @@
       <c r="Z12" s="29"/>
       <c r="AA12" s="29"/>
       <c r="AB12" s="29" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:28">
       <c r="A13" s="29" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
       <c r="E13" s="29" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F13" s="29"/>
       <c r="G13" s="29" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I13" s="29"/>
       <c r="J13" s="29" t="s">
@@ -7457,7 +7400,7 @@
       <c r="K13" s="29"/>
       <c r="L13" s="29"/>
       <c r="M13" s="29" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="N13" s="29"/>
       <c r="O13" s="29"/>
@@ -7474,43 +7417,43 @@
       <c r="Z13" s="29"/>
       <c r="AA13" s="29"/>
       <c r="AB13" s="29" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:28">
       <c r="A14" s="29" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C14" s="29"/>
       <c r="D14" s="29"/>
       <c r="E14" s="29" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F14" s="29"/>
       <c r="G14" s="29" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="I14" s="29"/>
       <c r="J14" s="29" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K14" s="29"/>
       <c r="L14" s="29"/>
       <c r="M14" s="29" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="N14" s="29" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="O14" s="29"/>
       <c r="P14" s="29" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q14" s="29"/>
       <c r="R14" s="29"/>
@@ -7524,26 +7467,26 @@
       <c r="Z14" s="29"/>
       <c r="AA14" s="29"/>
       <c r="AB14" s="29" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:28">
       <c r="A15" s="29" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C15" s="29"/>
       <c r="D15" s="29"/>
       <c r="E15" s="29" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H15" s="29"/>
       <c r="I15" s="29"/>
@@ -7566,26 +7509,26 @@
       <c r="Z15" s="29"/>
       <c r="AA15" s="29"/>
       <c r="AB15" s="29" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="16" spans="1:28">
       <c r="A16" s="29" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C16" s="29"/>
       <c r="D16" s="29"/>
       <c r="E16" s="29" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H16" s="29"/>
       <c r="I16" s="29"/>
@@ -7594,17 +7537,17 @@
       <c r="L16" s="29"/>
       <c r="M16" s="29"/>
       <c r="N16" s="29" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="O16" s="29"/>
       <c r="P16" s="29" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q16" s="29" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="R16" s="29" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="S16" s="29"/>
       <c r="T16" s="29"/>
@@ -7616,30 +7559,30 @@
       <c r="Z16" s="29"/>
       <c r="AA16" s="29"/>
       <c r="AB16" s="29" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:28">
       <c r="A17" s="30" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
       <c r="E17" s="30"/>
       <c r="F17" s="30" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G17" s="30" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H17" s="30" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="I17" s="30" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="J17" s="30"/>
       <c r="K17" s="30"/>
@@ -7660,39 +7603,39 @@
       <c r="Z17" s="30"/>
       <c r="AA17" s="30"/>
       <c r="AB17" s="30" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:28">
       <c r="A18" s="30" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
       <c r="E18" s="30" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F18" s="30" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G18" s="30"/>
       <c r="H18" s="30"/>
       <c r="I18" s="30"/>
       <c r="J18" s="30" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K18" s="30"/>
       <c r="L18" s="30"/>
       <c r="M18" s="30"/>
       <c r="N18" s="30" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="O18" s="30"/>
       <c r="P18" s="30" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q18" s="30"/>
       <c r="R18" s="30"/>
@@ -7706,15 +7649,15 @@
       <c r="Z18" s="30"/>
       <c r="AA18" s="30"/>
       <c r="AB18" s="30" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="1:28">
       <c r="A19" s="29" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C19" s="29"/>
       <c r="D19" s="29"/>
@@ -7738,23 +7681,23 @@
       <c r="V19" s="29"/>
       <c r="W19" s="29"/>
       <c r="X19" s="29" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Y19" s="29" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Z19" s="29"/>
       <c r="AA19" s="29"/>
       <c r="AB19" s="29" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:28">
       <c r="A20" s="30" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
@@ -7778,20 +7721,20 @@
       <c r="V20" s="30"/>
       <c r="W20" s="30"/>
       <c r="X20" s="30" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Y20" s="30" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Z20" s="30"/>
       <c r="AA20" s="30"/>
       <c r="AB20" s="30" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:28">
       <c r="A21" s="29" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B21" s="29"/>
       <c r="C21" s="29"/>
@@ -7825,7 +7768,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1595226169" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1595658426" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -7834,16 +7777,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1595226169" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1595226169" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1595226169" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1595226169" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1595658426" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1595658426" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1595658426" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1595658426" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1595226169" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1595658426" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -7871,33 +7814,33 @@
     <row r="1" spans="1:5">
       <c r="A1" s="24"/>
       <c r="B1" s="24" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>258</v>
+        <v>125</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="24" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -7932,7 +7875,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1595226169" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1595658426" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -7941,16 +7884,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1595226169" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1595226169" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1595226169" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1595226169" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1595658426" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1595658426" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1595658426" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1595658426" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1595226169" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1595658426" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -7992,545 +7935,545 @@
         <v>81</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D4" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="G4" s="32" t="s">
         <v>263</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="F4" s="32" t="s">
-        <v>268</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="33"/>
       <c r="B5" s="34" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E5" s="33"/>
       <c r="F5" s="35" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="33"/>
       <c r="B6" s="34" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E6" s="33"/>
       <c r="F6" s="35" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G6" s="33" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="33"/>
       <c r="B7" s="34" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="35" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G7" s="33" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="33"/>
       <c r="B8" s="34" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E8" s="33"/>
       <c r="F8" s="35" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G8" s="33" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="33"/>
       <c r="B9" s="34" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C9" s="33" t="s">
         <v>56</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E9" s="33"/>
       <c r="F9" s="35" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G9" s="33" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="33"/>
       <c r="B10" s="34" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E10" s="33"/>
       <c r="F10" s="35" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G10" s="33" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="33" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E11" s="33"/>
       <c r="F11" s="35" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="33"/>
       <c r="B12" s="33" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E12" s="33"/>
       <c r="F12" s="35" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="33"/>
       <c r="B13" s="33" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E13" s="33"/>
       <c r="F13" s="35" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G13" s="33" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="33"/>
       <c r="B14" s="33" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E14" s="33"/>
       <c r="F14" s="35" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="34" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E15" s="34"/>
       <c r="F15" s="36" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G15" s="34" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="33"/>
       <c r="B16" s="34" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E16" s="33"/>
       <c r="F16" s="33" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G16" s="33" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="33"/>
       <c r="B17" s="34" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E17" s="33"/>
       <c r="F17" s="33" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G17" s="33" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="33"/>
       <c r="B18" s="34" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E18" s="33"/>
       <c r="F18" s="33" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G18" s="33" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="33" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E19" s="33"/>
       <c r="F19" s="35" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="33" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F20" s="35" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G20" s="33" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="33" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E21" s="33" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F21" s="35" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G21" s="33" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="33" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E22" s="33" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F22" s="35" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G22" s="33" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="34"/>
       <c r="B23" s="33" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E23" s="33"/>
       <c r="F23" s="35" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G23" s="33" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="33" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E24" s="33"/>
       <c r="F24" s="35" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G24" s="33" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="33" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E25" s="33"/>
       <c r="F25" s="35" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G25" s="33" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="33" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E26" s="33"/>
       <c r="F26" s="35" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G26" s="33" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="33" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E27" s="33"/>
       <c r="F27" s="35" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G27" s="33" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="33" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E28" s="33"/>
       <c r="F28" s="35" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G28" s="33" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="33" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E29" s="33"/>
       <c r="F29" s="35" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G29" s="33" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="37" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B30" s="37" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D30" s="37" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E30" s="37"/>
       <c r="F30" s="38" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G30" s="37" t="s">
         <v>78</v>
@@ -8538,20 +8481,20 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="37" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B31" s="37" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C31" s="37" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D31" s="37" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E31" s="37"/>
       <c r="F31" s="38" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G31" s="37" t="s">
         <v>78</v>
@@ -8559,20 +8502,20 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="37" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B32" s="37" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C32" s="37" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D32" s="37" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E32" s="37"/>
       <c r="F32" s="38" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G32" s="37" t="s">
         <v>78</v>
@@ -8581,17 +8524,17 @@
     <row r="33" spans="1:7">
       <c r="A33" s="37"/>
       <c r="B33" s="37" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C33" s="37" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D33" s="37" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E33" s="37"/>
       <c r="F33" s="38" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G33" s="37" t="s">
         <v>78</v>
@@ -8600,17 +8543,17 @@
     <row r="34" spans="1:7">
       <c r="A34" s="37"/>
       <c r="B34" s="37" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C34" s="37" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D34" s="37" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E34" s="37"/>
       <c r="F34" s="38" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G34" s="37" t="s">
         <v>78</v>
@@ -8619,17 +8562,17 @@
     <row r="35" spans="1:7">
       <c r="A35" s="37"/>
       <c r="B35" s="37" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C35" s="37" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D35" s="37" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E35" s="37"/>
       <c r="F35" s="38" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G35" s="37" t="s">
         <v>78</v>
@@ -8637,20 +8580,20 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="37" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B36" s="37" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C36" s="37" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D36" s="37" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E36" s="37"/>
       <c r="F36" s="38" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G36" s="37" t="s">
         <v>78</v>
@@ -8659,17 +8602,17 @@
     <row r="37" spans="1:7">
       <c r="A37" s="37"/>
       <c r="B37" s="37" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C37" s="37" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D37" s="37" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E37" s="37"/>
       <c r="F37" s="38" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G37" s="37" t="s">
         <v>78</v>
@@ -8678,17 +8621,17 @@
     <row r="38" spans="1:7">
       <c r="A38" s="37"/>
       <c r="B38" s="37" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C38" s="37" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D38" s="37" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E38" s="37"/>
       <c r="F38" s="38" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G38" s="37" t="s">
         <v>78</v>
@@ -8696,20 +8639,20 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="37" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B39" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C39" s="37" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D39" s="37" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E39" s="37"/>
       <c r="F39" s="38" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G39" s="37" t="s">
         <v>78</v>
@@ -8717,20 +8660,20 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="37" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B40" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C40" s="37" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D40" s="37" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E40" s="37"/>
       <c r="F40" s="38" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G40" s="37" t="s">
         <v>78</v>
@@ -8738,20 +8681,20 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="37" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B41" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C41" s="37" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D41" s="37" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E41" s="37"/>
       <c r="F41" s="38" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G41" s="37" t="s">
         <v>78</v>
@@ -8759,20 +8702,20 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="37" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B42" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C42" s="37" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D42" s="37" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E42" s="37"/>
       <c r="F42" s="38" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G42" s="37" t="s">
         <v>78</v>
@@ -8784,14 +8727,14 @@
         <v>47</v>
       </c>
       <c r="C43" s="37" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D43" s="37" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G43" s="37" t="s">
         <v>78</v>
@@ -8799,20 +8742,20 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="37" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B44" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C44" s="37" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D44" s="37" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E44" s="37"/>
       <c r="F44" s="38" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G44" s="37" t="s">
         <v>78</v>
@@ -8820,20 +8763,20 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="37" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B45" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D45" s="37" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E45" s="37"/>
       <c r="F45" s="38" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G45" s="37" t="s">
         <v>78</v>
@@ -8841,20 +8784,20 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="37" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B46" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C46" s="37" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D46" s="37" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E46" s="37"/>
       <c r="F46" s="38" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G46" s="37" t="s">
         <v>78</v>
@@ -8862,20 +8805,20 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="37" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B47" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C47" s="37" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D47" s="37" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E47" s="37"/>
       <c r="F47" s="38" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G47" s="37" t="s">
         <v>78</v>
@@ -8887,14 +8830,14 @@
         <v>47</v>
       </c>
       <c r="C48" s="37" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D48" s="37" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E48" s="37"/>
       <c r="F48" s="38" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G48" s="37" t="s">
         <v>78</v>
@@ -8902,20 +8845,20 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="37" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B49" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C49" s="37" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D49" s="37" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E49" s="37"/>
       <c r="F49" s="38" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G49" s="37" t="s">
         <v>78</v>
@@ -8923,20 +8866,20 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="37" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B50" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C50" s="37" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D50" s="37" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E50" s="37"/>
       <c r="F50" s="38" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G50" s="37" t="s">
         <v>78</v>
@@ -8944,20 +8887,20 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="37" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B51" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C51" s="37" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D51" s="37" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E51" s="37"/>
       <c r="F51" s="38" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G51" s="37" t="s">
         <v>78</v>
@@ -8969,14 +8912,14 @@
         <v>47</v>
       </c>
       <c r="C52" s="37" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D52" s="37" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E52" s="37"/>
       <c r="F52" s="38" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G52" s="37" t="s">
         <v>78</v>
@@ -8984,20 +8927,20 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="37" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B53" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C53" s="37" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D53" s="37" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E53" s="37"/>
       <c r="F53" s="38" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G53" s="37" t="s">
         <v>78</v>
@@ -9005,20 +8948,20 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="37" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B54" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C54" s="37" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D54" s="37" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E54" s="37"/>
       <c r="F54" s="38" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="G54" s="37" t="s">
         <v>78</v>
@@ -9026,20 +8969,20 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="37" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B55" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C55" s="37" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D55" s="37" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E55" s="37"/>
       <c r="F55" s="38" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="G55" s="37" t="s">
         <v>78</v>
@@ -9047,20 +8990,20 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="37" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B56" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C56" s="37" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D56" s="37" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E56" s="37"/>
       <c r="F56" s="38" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G56" s="37" t="s">
         <v>78</v>
@@ -9068,20 +9011,20 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="37" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B57" s="37" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C57" s="37" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D57" s="37" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E57" s="37"/>
       <c r="F57" s="38" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G57" s="37" t="s">
         <v>78</v>
@@ -9089,20 +9032,20 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="37" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B58" s="37" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C58" s="37" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D58" s="37" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E58" s="37"/>
       <c r="F58" s="38" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G58" s="37" t="s">
         <v>78</v>
@@ -9110,20 +9053,20 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="37" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B59" s="37" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C59" s="37" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D59" s="37" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E59" s="37"/>
       <c r="F59" s="38" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G59" s="37" t="s">
         <v>78</v>
@@ -9131,20 +9074,20 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="37" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B60" s="37" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C60" s="37" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D60" s="37" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E60" s="37"/>
       <c r="F60" s="38" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G60" s="37" t="s">
         <v>78</v>
@@ -9152,20 +9095,20 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="37" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B61" s="37" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C61" s="37" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D61" s="37" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E61" s="37"/>
       <c r="F61" s="38" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G61" s="37" t="s">
         <v>78</v>
@@ -9174,17 +9117,17 @@
     <row r="62" spans="1:7">
       <c r="A62" s="37"/>
       <c r="B62" s="37" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C62" s="37" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D62" s="37" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E62" s="37"/>
       <c r="F62" s="38" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G62" s="37" t="s">
         <v>78</v>
@@ -9193,17 +9136,17 @@
     <row r="63" spans="1:7">
       <c r="A63" s="37"/>
       <c r="B63" s="37" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C63" s="37" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D63" s="37" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E63" s="37"/>
       <c r="F63" s="38" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G63" s="37" t="s">
         <v>78</v>
@@ -9212,17 +9155,17 @@
     <row r="64" spans="1:7">
       <c r="A64" s="37"/>
       <c r="B64" s="37" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C64" s="37" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D64" s="37" t="s">
         <v>68</v>
       </c>
       <c r="E64" s="37"/>
       <c r="F64" s="38" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G64" s="37" t="s">
         <v>78</v>
@@ -9231,17 +9174,17 @@
     <row r="65" spans="1:7">
       <c r="A65" s="37"/>
       <c r="B65" s="37" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C65" s="37" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D65" s="37" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E65" s="37"/>
       <c r="F65" s="38" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G65" s="37" t="s">
         <v>78</v>
@@ -9250,17 +9193,17 @@
     <row r="66" spans="1:7">
       <c r="A66" s="37"/>
       <c r="B66" s="37" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C66" s="37" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D66" s="37" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E66" s="37"/>
       <c r="F66" s="38" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G66" s="37" t="s">
         <v>78</v>
@@ -9268,20 +9211,20 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="37" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B67" s="37" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C67" s="37" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D67" s="37" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E67" s="37"/>
       <c r="F67" s="38" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G67" s="37" t="s">
         <v>78</v>
@@ -9290,17 +9233,17 @@
     <row r="68" spans="1:7">
       <c r="A68" s="37"/>
       <c r="B68" s="37" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C68" s="37" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D68" s="37" t="s">
         <v>69</v>
       </c>
       <c r="E68" s="37"/>
       <c r="F68" s="38" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G68" s="37" t="s">
         <v>78</v>
@@ -9309,17 +9252,17 @@
     <row r="69" spans="1:7">
       <c r="A69" s="37"/>
       <c r="B69" s="37" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C69" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D69" s="37" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E69" s="37"/>
       <c r="F69" s="38" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G69" s="37" t="s">
         <v>78</v>
@@ -9327,20 +9270,20 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="37" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B70" s="37" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C70" s="37" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D70" s="37" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E70" s="37"/>
       <c r="F70" s="38" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G70" s="37" t="s">
         <v>78</v>
@@ -9348,20 +9291,20 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="37" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B71" s="37" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C71" s="37" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D71" s="37" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E71" s="37"/>
       <c r="F71" s="38" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="G71" s="37" t="s">
         <v>78</v>
@@ -9369,20 +9312,20 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="37" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B72" s="37" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C72" s="37" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D72" s="37" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E72" s="37"/>
       <c r="F72" s="38" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="G72" s="37" t="s">
         <v>78</v>
@@ -9390,22 +9333,22 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="37" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B73" s="37" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C73" s="37" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D73" s="37" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E73" s="37" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F73" s="38" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="G73" s="37" t="s">
         <v>78</v>
@@ -9413,22 +9356,22 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="37" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B74" s="37" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C74" s="37" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D74" s="37" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E74" s="37" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F74" s="38" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="G74" s="37" t="s">
         <v>78</v>
@@ -9436,20 +9379,20 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="37" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B75" s="37" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C75" s="37" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D75" s="37" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E75" s="37"/>
       <c r="F75" s="38" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G75" s="37" t="s">
         <v>78</v>
@@ -9457,20 +9400,20 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="37" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B76" s="37" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C76" s="37" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D76" s="37" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E76" s="37"/>
       <c r="F76" s="38" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="G76" s="37" t="s">
         <v>78</v>
@@ -9478,20 +9421,20 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="37" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B77" s="37" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C77" s="37" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D77" s="37" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E77" s="37"/>
       <c r="F77" s="38" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="G77" s="37" t="s">
         <v>78</v>
@@ -9500,17 +9443,17 @@
     <row r="78" spans="1:7">
       <c r="A78" s="37"/>
       <c r="B78" s="37" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C78" s="37" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D78" s="37" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E78" s="37"/>
       <c r="F78" s="38" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="G78" s="37" t="s">
         <v>78</v>
@@ -9518,22 +9461,22 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="37" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B79" s="37" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C79" s="37" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D79" s="37" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E79" s="37" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F79" s="38" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="G79" s="37" t="s">
         <v>78</v>
@@ -9541,22 +9484,22 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="37" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B80" s="37" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C80" s="37" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D80" s="37" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E80" s="37" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F80" s="38" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G80" s="37" t="s">
         <v>78</v>
@@ -9564,22 +9507,22 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="37" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B81" s="37" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C81" s="37" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D81" s="37" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E81" s="37" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F81" s="38" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="G81" s="37" t="s">
         <v>78</v>
@@ -9587,22 +9530,22 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="37" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B82" s="37" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C82" s="37" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D82" s="37" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E82" s="37" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F82" s="38" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="G82" s="37" t="s">
         <v>78</v>
@@ -9611,17 +9554,17 @@
     <row r="83" spans="1:7">
       <c r="A83" s="37"/>
       <c r="B83" s="37" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C83" s="37" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D83" s="37" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E83" s="37"/>
       <c r="F83" s="38" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="G83" s="37" t="s">
         <v>78</v>
@@ -9629,22 +9572,22 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="37" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B84" s="37" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C84" s="37" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D84" s="37" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E84" s="37" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F84" s="38" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G84" s="37" t="s">
         <v>78</v>
@@ -9652,22 +9595,22 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="37" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B85" s="37" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C85" s="37" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D85" s="37" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E85" s="37" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F85" s="38" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="G85" s="37" t="s">
         <v>78</v>
@@ -9675,20 +9618,20 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="37" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B86" s="37" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C86" s="37" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D86" s="37" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E86" s="37"/>
       <c r="F86" s="38" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="G86" s="37" t="s">
         <v>78</v>
@@ -9696,20 +9639,20 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="37" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B87" s="37" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C87" s="37" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D87" s="37" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E87" s="37"/>
       <c r="F87" s="38" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="G87" s="37" t="s">
         <v>78</v>
@@ -9719,7 +9662,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1595226169" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1595658426" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -9730,16 +9673,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1595226169" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1595226169" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1595226169" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1595226169" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1595658426" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1595658426" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1595658426" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1595658426" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1595226169" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1595658426" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -9771,543 +9714,543 @@
         <v>81</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D4" s="39" t="s">
+        <v>264</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>268</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>269</v>
+      </c>
+      <c r="G4" s="39" t="s">
         <v>263</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>267</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>268</v>
-      </c>
-      <c r="G4" s="39" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="33"/>
       <c r="B5" s="34" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E5" s="33"/>
       <c r="F5" s="35" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="33"/>
       <c r="B6" s="34" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E6" s="33"/>
       <c r="F6" s="35" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G6" s="33" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="33"/>
       <c r="B7" s="34" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="35" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G7" s="33" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="33"/>
       <c r="B8" s="34" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E8" s="33"/>
       <c r="F8" s="35" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G8" s="33" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="33"/>
       <c r="B9" s="34" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C9" s="33" t="s">
         <v>56</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E9" s="33"/>
       <c r="F9" s="35" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G9" s="33" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="33"/>
       <c r="B10" s="34" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E10" s="33"/>
       <c r="F10" s="35" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G10" s="33" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="33" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E11" s="33"/>
       <c r="F11" s="35" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="33"/>
       <c r="B12" s="33" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E12" s="33"/>
       <c r="F12" s="35" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="33"/>
       <c r="B13" s="33" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E13" s="33"/>
       <c r="F13" s="35" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G13" s="33" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="33"/>
       <c r="B14" s="33" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E14" s="33"/>
       <c r="F14" s="35" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="34" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E15" s="34"/>
       <c r="F15" s="36" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G15" s="34" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="33"/>
       <c r="B16" s="34" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E16" s="33"/>
       <c r="F16" s="33" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G16" s="33" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="33"/>
       <c r="B17" s="34" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E17" s="33"/>
       <c r="F17" s="33" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G17" s="33" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="33"/>
       <c r="B18" s="34" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E18" s="33"/>
       <c r="F18" s="33" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G18" s="33" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="33" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E19" s="33"/>
       <c r="F19" s="35" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="33" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F20" s="35" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G20" s="33" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="33" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E21" s="33" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F21" s="35" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G21" s="33" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="33" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E22" s="33" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F22" s="35" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G22" s="33" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="34"/>
       <c r="B23" s="33" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E23" s="33"/>
       <c r="F23" s="35" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G23" s="33" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="33" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E24" s="33"/>
       <c r="F24" s="35" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G24" s="33" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="33" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E25" s="33"/>
       <c r="F25" s="35" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G25" s="33" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="33" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E26" s="33"/>
       <c r="F26" s="35" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G26" s="33" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="33" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E27" s="33"/>
       <c r="F27" s="35" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G27" s="33" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="33" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E28" s="33"/>
       <c r="F28" s="35" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G28" s="33" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="33" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E29" s="33"/>
       <c r="F29" s="35" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G29" s="33" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="40"/>
       <c r="B30" s="40" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D30" s="40" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E30" s="40"/>
       <c r="F30" s="41" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="G30" s="40" t="s">
         <v>90</v>
@@ -10316,17 +10259,17 @@
     <row r="31" spans="1:7">
       <c r="A31" s="40"/>
       <c r="B31" s="40" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E31" s="40"/>
       <c r="F31" s="41" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G31" s="40" t="s">
         <v>90</v>
@@ -10335,17 +10278,17 @@
     <row r="32" spans="1:7">
       <c r="A32" s="40"/>
       <c r="B32" s="40" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C32" s="40" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D32" s="40" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E32" s="40"/>
       <c r="F32" s="41" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G32" s="40" t="s">
         <v>90</v>
@@ -10354,17 +10297,17 @@
     <row r="33" spans="1:7">
       <c r="A33" s="40"/>
       <c r="B33" s="40" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C33" s="40" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D33" s="40" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E33" s="40"/>
       <c r="F33" s="40" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G33" s="40" t="s">
         <v>90</v>
@@ -10373,17 +10316,17 @@
     <row r="34" spans="1:7">
       <c r="A34" s="40"/>
       <c r="B34" s="40" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C34" s="40" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E34" s="40"/>
       <c r="F34" s="41" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="G34" s="40" t="s">
         <v>90</v>
@@ -10391,20 +10334,20 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="40" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B35" s="40" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C35" s="40" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D35" s="40" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E35" s="40"/>
       <c r="F35" s="41" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G35" s="40" t="s">
         <v>90</v>
@@ -10413,17 +10356,17 @@
     <row r="36" spans="1:7">
       <c r="A36" s="40"/>
       <c r="B36" s="37" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C36" s="40" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D36" s="40" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E36" s="40"/>
       <c r="F36" s="40" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G36" s="40" t="s">
         <v>90</v>
@@ -10432,17 +10375,17 @@
     <row r="37" spans="1:7">
       <c r="A37" s="40"/>
       <c r="B37" s="37" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C37" s="40" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D37" s="40" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E37" s="40"/>
       <c r="F37" s="40" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="G37" s="40" t="s">
         <v>90</v>
@@ -10451,17 +10394,17 @@
     <row r="38" spans="1:7">
       <c r="A38" s="40"/>
       <c r="B38" s="37" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D38" s="40" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E38" s="40"/>
       <c r="F38" s="40" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G38" s="40" t="s">
         <v>90</v>
@@ -10470,17 +10413,17 @@
     <row r="39" spans="1:7">
       <c r="A39" s="40"/>
       <c r="B39" s="37" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C39" s="40" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D39" s="40" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E39" s="40"/>
       <c r="F39" s="40" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="G39" s="40" t="s">
         <v>90</v>
@@ -10488,20 +10431,20 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="40" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B40" s="37" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D40" s="40" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E40" s="40"/>
       <c r="F40" s="41" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="G40" s="40" t="s">
         <v>90</v>
@@ -10510,17 +10453,17 @@
     <row r="41" spans="1:7">
       <c r="A41" s="40"/>
       <c r="B41" s="37" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D41" s="40" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E41" s="40"/>
       <c r="F41" s="41" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="G41" s="40" t="s">
         <v>90</v>
@@ -10529,17 +10472,17 @@
     <row r="42" spans="1:7">
       <c r="A42" s="40"/>
       <c r="B42" s="37" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D42" s="40" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E42" s="40"/>
       <c r="F42" s="41" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="G42" s="40" t="s">
         <v>90</v>
@@ -10548,17 +10491,17 @@
     <row r="43" spans="1:7">
       <c r="A43" s="40"/>
       <c r="B43" s="37" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D43" s="40" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E43" s="40"/>
       <c r="F43" s="41" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="G43" s="40" t="s">
         <v>90</v>
@@ -10567,17 +10510,17 @@
     <row r="44" spans="1:7">
       <c r="A44" s="40"/>
       <c r="B44" s="37" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C44" s="40" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D44" s="40" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E44" s="40"/>
       <c r="F44" s="41" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="G44" s="40" t="s">
         <v>90</v>
@@ -10585,20 +10528,20 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="40" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B45" s="37" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D45" s="40" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E45" s="40"/>
       <c r="F45" s="41" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="G45" s="40" t="s">
         <v>90</v>
@@ -10606,22 +10549,22 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="40" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B46" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C46" s="40" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D46" s="40" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E46" s="40" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F46" s="41" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G46" s="40" t="s">
         <v>90</v>
@@ -10629,20 +10572,20 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="40" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B47" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C47" s="40" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D47" s="40" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E47" s="40"/>
       <c r="F47" s="41" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="G47" s="40" t="s">
         <v>90</v>
@@ -10650,20 +10593,20 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="40" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B48" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C48" s="40" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D48" s="40" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E48" s="40"/>
       <c r="F48" s="41" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="G48" s="40" t="s">
         <v>90</v>
@@ -10671,20 +10614,20 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="40" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B49" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C49" s="40" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D49" s="40" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E49" s="40"/>
       <c r="F49" s="41" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G49" s="40" t="s">
         <v>90</v>
@@ -10692,20 +10635,20 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="40" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B50" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C50" s="40" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D50" s="40" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E50" s="40"/>
       <c r="F50" s="41" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="G50" s="40" t="s">
         <v>90</v>
@@ -10717,14 +10660,14 @@
         <v>47</v>
       </c>
       <c r="C51" s="40" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D51" s="40" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E51" s="40"/>
       <c r="F51" s="40" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="G51" s="40" t="s">
         <v>90</v>
@@ -10736,14 +10679,14 @@
         <v>47</v>
       </c>
       <c r="C52" s="40" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D52" s="40" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E52" s="40"/>
       <c r="F52" s="40" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G52" s="40" t="s">
         <v>90</v>
@@ -10751,20 +10694,20 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="40" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B53" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C53" s="40" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D53" s="40" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E53" s="40"/>
       <c r="F53" s="41" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="G53" s="40" t="s">
         <v>90</v>
@@ -10772,22 +10715,22 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="42" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B54" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C54" s="43" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D54" s="43" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E54" s="43" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F54" s="44" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="G54" s="43" t="s">
         <v>90</v>
@@ -10795,22 +10738,22 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="42" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B55" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C55" s="43" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D55" s="43" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E55" s="43" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F55" s="44" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="G55" s="43" t="s">
         <v>90</v>
@@ -10818,20 +10761,20 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="40" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B56" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C56" s="40" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D56" s="40" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E56" s="40"/>
       <c r="F56" s="41" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="G56" s="40" t="s">
         <v>90</v>
@@ -10839,20 +10782,20 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="40" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B57" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C57" s="40" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D57" s="40" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E57" s="40"/>
       <c r="F57" s="41" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="G57" s="40" t="s">
         <v>90</v>
@@ -10860,20 +10803,20 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="40" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B58" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C58" s="40" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D58" s="40" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E58" s="40"/>
       <c r="F58" s="41" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="G58" s="40" t="s">
         <v>90</v>
@@ -10882,17 +10825,17 @@
     <row r="59" spans="1:7">
       <c r="A59" s="40"/>
       <c r="B59" s="40" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C59" s="40" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D59" s="40" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E59" s="40"/>
       <c r="F59" s="41" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G59" s="40" t="s">
         <v>90</v>
@@ -10901,17 +10844,17 @@
     <row r="60" spans="1:7">
       <c r="A60" s="40"/>
       <c r="B60" s="40" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C60" s="40" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D60" s="40" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E60" s="40"/>
       <c r="F60" s="41" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G60" s="40" t="s">
         <v>90</v>
@@ -10920,17 +10863,17 @@
     <row r="61" spans="1:7">
       <c r="A61" s="40"/>
       <c r="B61" s="40" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C61" s="40" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D61" s="40" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E61" s="40"/>
       <c r="F61" s="41" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G61" s="40" t="s">
         <v>90</v>
@@ -10939,17 +10882,17 @@
     <row r="62" spans="1:7">
       <c r="A62" s="40"/>
       <c r="B62" s="40" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C62" s="40" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D62" s="40" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E62" s="40"/>
       <c r="F62" s="41" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G62" s="40" t="s">
         <v>90</v>
@@ -10958,17 +10901,17 @@
     <row r="63" spans="1:7">
       <c r="A63" s="40"/>
       <c r="B63" s="40" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C63" s="40" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D63" s="40" t="s">
         <v>68</v>
       </c>
       <c r="E63" s="40"/>
       <c r="F63" s="41" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G63" s="40" t="s">
         <v>90</v>
@@ -10976,20 +10919,20 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="40" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B64" s="40" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C64" s="40" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D64" s="40" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E64" s="40"/>
       <c r="F64" s="41" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="G64" s="40" t="s">
         <v>90</v>
@@ -10998,17 +10941,17 @@
     <row r="65" spans="1:7">
       <c r="A65" s="40"/>
       <c r="B65" s="40" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C65" s="40" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D65" s="40" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E65" s="40"/>
       <c r="F65" s="41" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="G65" s="40" t="s">
         <v>90</v>
@@ -11017,17 +10960,17 @@
     <row r="66" spans="1:7">
       <c r="A66" s="40"/>
       <c r="B66" s="40" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C66" s="40" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D66" s="40" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E66" s="40"/>
       <c r="F66" s="41" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="G66" s="40" t="s">
         <v>90</v>
@@ -11036,17 +10979,17 @@
     <row r="67" spans="1:7">
       <c r="A67" s="40"/>
       <c r="B67" s="40" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C67" s="40" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D67" s="40" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E67" s="40"/>
       <c r="F67" s="41" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="G67" s="40" t="s">
         <v>90</v>
@@ -11054,20 +10997,20 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="40" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B68" s="40" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C68" s="40" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D68" s="40" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E68" s="40"/>
       <c r="F68" s="41" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="G68" s="40" t="s">
         <v>90</v>
@@ -11075,20 +11018,20 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="40" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B69" s="40" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C69" s="40" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D69" s="40" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E69" s="40"/>
       <c r="F69" s="41" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="G69" s="40" t="s">
         <v>90</v>
@@ -11096,22 +11039,22 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="40" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B70" s="40" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C70" s="40" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D70" s="40" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="E70" s="40" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F70" s="41" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="G70" s="40" t="s">
         <v>90</v>
@@ -11119,22 +11062,22 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="40" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B71" s="40" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C71" s="40" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D71" s="40" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E71" s="40" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F71" s="41" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="G71" s="40" t="s">
         <v>90</v>
@@ -11142,20 +11085,20 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="40" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B72" s="40" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C72" s="40" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D72" s="40" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E72" s="40"/>
       <c r="F72" s="41" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="G72" s="40" t="s">
         <v>90</v>
@@ -11163,22 +11106,22 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="40" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B73" s="40" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C73" s="40" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D73" s="40" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E73" s="40" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F73" s="41" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="G73" s="40" t="s">
         <v>90</v>
@@ -11186,22 +11129,22 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="40" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B74" s="40" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C74" s="40" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D74" s="40" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E74" s="40" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F74" s="41" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="G74" s="40" t="s">
         <v>90</v>
@@ -11209,22 +11152,22 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="40" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B75" s="40" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C75" s="40" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D75" s="40" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E75" s="40" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F75" s="41" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="G75" s="40" t="s">
         <v>90</v>
@@ -11232,22 +11175,22 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="40" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B76" s="40" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C76" s="40" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D76" s="40" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E76" s="40" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F76" s="41" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="G76" s="40" t="s">
         <v>90</v>
@@ -11255,22 +11198,22 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="40" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B77" s="40" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C77" s="40" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D77" s="40" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E77" s="40" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F77" s="41" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G77" s="40" t="s">
         <v>90</v>
@@ -11278,22 +11221,22 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="40" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B78" s="40" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C78" s="40" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D78" s="40" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E78" s="40" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F78" s="41" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G78" s="40" t="s">
         <v>90</v>
@@ -11301,20 +11244,20 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="40" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B79" s="40" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C79" s="40" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D79" s="40" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E79" s="40"/>
       <c r="F79" s="41" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G79" s="40" t="s">
         <v>90</v>
@@ -11322,22 +11265,22 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="40" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B80" s="40" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C80" s="40" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D80" s="40" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E80" s="40" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F80" s="41" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="G80" s="40" t="s">
         <v>90</v>
@@ -11345,22 +11288,22 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="40" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B81" s="37" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C81" s="40" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D81" s="40" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="E81" s="40" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F81" s="41" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="G81" s="40" t="s">
         <v>90</v>
@@ -11368,22 +11311,22 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="40" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B82" s="37" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C82" s="40" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D82" s="40" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="E82" s="40" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F82" s="41" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="G82" s="40" t="s">
         <v>90</v>
@@ -11391,22 +11334,22 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="40" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B83" s="40" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C83" s="40" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D83" s="40" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E83" s="40" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F83" s="41" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="G83" s="40" t="s">
         <v>90</v>
@@ -11414,22 +11357,22 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="40" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B84" s="40" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C84" s="40" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D84" s="40" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E84" s="40" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F84" s="41" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G84" s="40" t="s">
         <v>90</v>
@@ -11437,22 +11380,22 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="40" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B85" s="40" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C85" s="40" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D85" s="40" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="E85" s="40" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F85" s="41" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G85" s="40" t="s">
         <v>90</v>
@@ -11460,22 +11403,22 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="40" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B86" s="37" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C86" s="40" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D86" s="40" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="E86" s="40" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F86" s="41" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="G86" s="40" t="s">
         <v>90</v>
@@ -11485,7 +11428,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1595226169" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1595658426" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -11496,16 +11439,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1595226169" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1595226169" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1595226169" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1595226169" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1595658426" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1595658426" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1595658426" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1595658426" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1595226169" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1595658426" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/サーバチェックシート.xlsx
+++ b/サーバチェックシート.xlsx
@@ -5,11 +5,12 @@
   <fileSharing readOnlyRecommended="0" userName="frsw3"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1" xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView activeTab="2" xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="1" r:id="rId4"/>
     <sheet name="検査対象" sheetId="2" r:id="rId5"/>
+    <sheet name="パラメータ パッケージ" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">利用手順!$A$1:$T$108</definedName>
@@ -17,17 +18,17 @@
   <calcPr iterateDelta="0.0001"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1601521033" val="978" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1601521033" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1601521033" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1601521033"/>
+      <pm:revision xmlns:pm="smNativeData" day="1602202688" val="978" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1602202688" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1602202688" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1602202688"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="179">
   <si>
     <t>0. はじめに</t>
   </si>
@@ -482,6 +483,9 @@
     <t>192.168.0.200</t>
   </si>
   <si>
+    <t>192.168.0.201</t>
+  </si>
+  <si>
     <t>server01</t>
   </si>
   <si>
@@ -498,13 +502,76 @@
   </si>
   <si>
     <t>{LocalFile}</t>
+  </si>
+  <si>
+    <t>必須パッケージ</t>
+  </si>
+  <si>
+    <t>packages.requirements</t>
+  </si>
+  <si>
+    <t>tigervnc</t>
+  </si>
+  <si>
+    <t>tigervnc-server</t>
+  </si>
+  <si>
+    <t>binutils</t>
+  </si>
+  <si>
+    <t>compat-libcap1</t>
+  </si>
+  <si>
+    <t>compat-libstdc++-33</t>
+  </si>
+  <si>
+    <t>glibc</t>
+  </si>
+  <si>
+    <t>glibc-devel</t>
+  </si>
+  <si>
+    <t>ksh</t>
+  </si>
+  <si>
+    <t>libaio</t>
+  </si>
+  <si>
+    <t>libaio-devel</t>
+  </si>
+  <si>
+    <t>libgcc</t>
+  </si>
+  <si>
+    <t>libstdc++</t>
+  </si>
+  <si>
+    <t>libstdc++-devel</t>
+  </si>
+  <si>
+    <t>libxcb</t>
+  </si>
+  <si>
+    <t>libX11</t>
+  </si>
+  <si>
+    <t>libXau</t>
+  </si>
+  <si>
+    <t>libXi</t>
+  </si>
+  <si>
+    <t>libXtst</t>
+  </si>
+  <si>
+    <t>make</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="13">
+  <numFmts count="14">
     <numFmt numFmtId="5" formatCode="#,##0\ &quot;¥&quot;;\-#,##0\ &quot;¥&quot;"/>
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;¥&quot;;[Red]\-#,##0\ &quot;¥&quot;"/>
     <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;¥&quot;;\-#,##0.00\ &quot;¥&quot;"/>
@@ -518,6 +585,7 @@
     <numFmt numFmtId="166" formatCode="_-&quot;¥&quot;* #,##0.00_-;\-&quot;¥&quot;* #,##0.00_-;_-&quot;¥&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="_-&quot;¥&quot;* #,##0_-;\-&quot;¥&quot;* #,##0_-;_-&quot;¥&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="9" formatCode="0%"/>
+    <numFmt numFmtId="168" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -528,7 +596,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601521033" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1602202688" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -543,7 +611,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601521033" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1602202688" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -559,7 +627,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601521033" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1602202688" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -576,7 +644,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601521033" fgClr="3F3F3F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1602202688" fgClr="3F3F3F" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -585,7 +653,7 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -598,7 +666,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601521033" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602202688" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -609,7 +677,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601521033" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602202688" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -620,7 +688,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601521033" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602202688" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -631,7 +699,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601521033" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602202688" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -642,7 +710,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601521033" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602202688" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -653,7 +721,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601521033" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602202688" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -664,7 +732,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601521033" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602202688" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -675,7 +743,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601521033" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602202688" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -686,7 +754,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601521033" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602202688" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -697,7 +765,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601521033" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602202688" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -708,7 +776,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601521033" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602202688" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -719,7 +787,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601521033" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602202688" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -730,7 +798,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601521033" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602202688" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -741,7 +809,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601521033" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602202688" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -752,7 +820,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601521033" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602202688" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -763,7 +831,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601521033" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602202688" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -774,7 +842,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601521033" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602202688" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -785,7 +853,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601521033" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602202688" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -797,24 +865,29 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9EFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1602202688" type="1" fgLvl="38" fgClr="0000FFFF" bgLvl="62" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FF9EFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601521033" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602202688" type="1" fgLvl="38" fgClr="0000FFFF" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="23">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -830,7 +903,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601521033"/>
+          <pm:border xmlns:pm="smNativeData" id="1602202688"/>
         </ext>
       </extLst>
     </border>
@@ -849,7 +922,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601521033">
+          <pm:border xmlns:pm="smNativeData" id="1602202688">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
@@ -873,7 +946,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601521033"/>
+          <pm:border xmlns:pm="smNativeData" id="1602202688"/>
         </ext>
       </extLst>
     </border>
@@ -892,7 +965,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601521033">
+          <pm:border xmlns:pm="smNativeData" id="1602202688">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -914,7 +987,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601521033">
+          <pm:border xmlns:pm="smNativeData" id="1602202688">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -935,7 +1008,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601521033">
+          <pm:border xmlns:pm="smNativeData" id="1602202688">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -957,7 +1030,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601521033">
+          <pm:border xmlns:pm="smNativeData" id="1602202688">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -979,7 +1052,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601521033">
+          <pm:border xmlns:pm="smNativeData" id="1602202688">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1000,7 +1073,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601521033">
+          <pm:border xmlns:pm="smNativeData" id="1602202688">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1022,7 +1095,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601521033">
+          <pm:border xmlns:pm="smNativeData" id="1602202688">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1046,7 +1119,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601521033">
+          <pm:border xmlns:pm="smNativeData" id="1602202688">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1070,7 +1143,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601521033">
+          <pm:border xmlns:pm="smNativeData" id="1602202688">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1093,7 +1166,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601521033">
+          <pm:border xmlns:pm="smNativeData" id="1602202688">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1116,7 +1189,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601521033">
+          <pm:border xmlns:pm="smNativeData" id="1602202688">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1138,7 +1211,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601521033">
+          <pm:border xmlns:pm="smNativeData" id="1602202688">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1161,7 +1234,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601521033">
+          <pm:border xmlns:pm="smNativeData" id="1602202688">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1182,7 +1255,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601521033">
+          <pm:border xmlns:pm="smNativeData" id="1602202688">
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1203,7 +1276,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601521033">
+          <pm:border xmlns:pm="smNativeData" id="1602202688">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1227,7 +1300,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601521033">
+          <pm:border xmlns:pm="smNativeData" id="1602202688">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1251,7 +1324,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601521033">
+          <pm:border xmlns:pm="smNativeData" id="1602202688">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1274,7 +1347,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601521033">
+          <pm:border xmlns:pm="smNativeData" id="1602202688">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1293,13 +1366,14 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="none">
+      <bottom style="double">
         <color rgb="FF000000"/>
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601521033">
+          <pm:border xmlns:pm="smNativeData" id="1602202688">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1307,42 +1381,25 @@
       </extLst>
     </border>
     <border>
-      <left style="none">
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="none">
+      <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="none">
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
+      <bottom style="none">
         <color rgb="FF000000"/>
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601521033">
-            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          <pm:border xmlns:pm="smNativeData" id="1602202688">
+            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601521033"/>
         </ext>
       </extLst>
     </border>
@@ -1373,7 +1430,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1461,6 +1518,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="22" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -1475,14 +1559,15 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1601521033" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1602202688" count="1">
         <pm:charStyle name="標準" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1601521033" count="4">
+      <pm:colors xmlns:pm="smNativeData" id="1602202688" count="5">
         <pm:color name="色 24" rgb="3F3F3F"/>
         <pm:color name="色 25" rgb="F2F2F2"/>
         <pm:color name="色 26" rgb="CCFFFF"/>
         <pm:color name="*20%灰色" rgb="000000"/>
+        <pm:color name="色 28" rgb="9EFFFF"/>
       </pm:colors>
     </ext>
   </extLst>
@@ -4718,7 +4803,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1601521033" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1602202688" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -4729,16 +4814,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1601521033" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1601521033" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601521033" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601521033" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1602202688" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1602202688" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1602202688" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1602202688" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601521033" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1602202688" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -4749,10 +4834,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" zoomScale="105" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView view="normal" zoomScale="105" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -4850,16 +4935,16 @@
       <c r="C4" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18" t="s">
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J4" s="18"/>
@@ -4873,14 +4958,14 @@
       <c r="C5" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18" t="s">
+      <c r="D5" s="29"/>
+      <c r="E5" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
       <c r="J5" s="15"/>
     </row>
     <row r="6" spans="1:10">
@@ -4894,16 +4979,16 @@
       <c r="C6" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15" t="s">
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30" t="s">
         <v>79</v>
       </c>
       <c r="J6" s="15"/>
@@ -4917,16 +5002,16 @@
       <c r="C7" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
       <c r="J7" s="15"/>
     </row>
     <row r="8" spans="1:10">
@@ -4940,16 +5025,16 @@
       <c r="C8" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
       <c r="J8" s="15"/>
     </row>
     <row r="9" spans="1:10">
@@ -4961,16 +5046,16 @@
       <c r="C9" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
       <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:10">
@@ -4984,16 +5069,16 @@
       <c r="C10" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15" t="s">
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30" t="s">
         <v>91</v>
       </c>
       <c r="J10" s="28"/>
@@ -5007,14 +5092,14 @@
       <c r="C11" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18" t="s">
+      <c r="D11" s="29"/>
+      <c r="E11" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15" t="s">
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30" t="s">
         <v>91</v>
       </c>
       <c r="J11" s="28"/>
@@ -5030,18 +5115,18 @@
       <c r="C12" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18" t="s">
+      <c r="F12" s="29"/>
+      <c r="G12" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15" t="s">
+      <c r="H12" s="30"/>
+      <c r="I12" s="30" t="s">
         <v>91</v>
       </c>
       <c r="J12" s="28"/>
@@ -5055,14 +5140,14 @@
       <c r="C13" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18" t="s">
+      <c r="D13" s="29"/>
+      <c r="E13" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15" t="s">
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30" t="s">
         <v>91</v>
       </c>
       <c r="J13" s="28"/>
@@ -5078,18 +5163,18 @@
       <c r="C14" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15" t="s">
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="I14" s="15"/>
+      <c r="I14" s="30"/>
       <c r="J14" s="28"/>
     </row>
     <row r="15" spans="1:10">
@@ -5097,22 +5182,20 @@
         <f>ROW()-3</f>
         <v>12</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="15"/>
+      <c r="C15" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="D15" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="C15" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="I15" s="15"/>
+      <c r="E15" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
       <c r="J15" s="28"/>
     </row>
     <row r="16" spans="1:10">
@@ -5121,17 +5204,21 @@
         <v>13</v>
       </c>
       <c r="B16" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="E16" s="29"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="C16" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
+      <c r="I16" s="30"/>
       <c r="J16" s="28"/>
     </row>
     <row r="17" spans="1:10">
@@ -5139,14 +5226,18 @@
         <f>ROW()-3</f>
         <v>14</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
+      <c r="B17" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="D17" s="30"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
       <c r="J17" s="28"/>
     </row>
     <row r="18" spans="1:10">
@@ -5156,12 +5247,12 @@
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="18"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
       <c r="J18" s="28"/>
     </row>
     <row r="19" spans="1:10">
@@ -5169,14 +5260,14 @@
         <f>ROW()-3</f>
         <v>16</v>
       </c>
-      <c r="B19" s="27"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="18"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
       <c r="J19" s="28"/>
     </row>
     <row r="20" spans="1:10">
@@ -5186,12 +5277,12 @@
       </c>
       <c r="B20" s="27"/>
       <c r="C20" s="18"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
       <c r="J20" s="28"/>
     </row>
     <row r="21" spans="1:10">
@@ -5201,12 +5292,12 @@
       </c>
       <c r="B21" s="27"/>
       <c r="C21" s="18"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
       <c r="J21" s="28"/>
     </row>
     <row r="22" spans="1:10">
@@ -5216,12 +5307,12 @@
       </c>
       <c r="B22" s="27"/>
       <c r="C22" s="18"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
       <c r="J22" s="28"/>
     </row>
     <row r="23" spans="1:10">
@@ -5231,17 +5322,32 @@
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="18"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
       <c r="J23" s="28"/>
     </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="28">
+        <f>ROW()-3</f>
+        <v>21</v>
+      </c>
+      <c r="B24" s="27"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="28"/>
+    </row>
   </sheetData>
-  <dataValidations count="6">
-    <dataValidation sqref="C4:C9 C19:C23" type="list" operator="equal" errorStyle="stop" allowBlank="1" showErrorMessage="1" view="0">
+  <dataValidations count="7">
+    <dataValidation sqref="C4:C9 C20:C24" type="list" operator="equal" errorStyle="stop" allowBlank="1" showErrorMessage="1" view="0">
       <formula1>"Linux,Windows,VMWare,VMHost,HPiLO,CiscoUCS,Primergy,HitachVSP,NetAPP,Zabbix,{Agent},{LocalFile}"</formula1>
     </dataValidation>
     <dataValidation sqref="C10:C11" type="list" operator="equal" errorStyle="stop" allowBlank="1" showErrorMessage="1" view="0">
@@ -5253,17 +5359,20 @@
     <dataValidation sqref="C14" type="list" operator="equal" errorStyle="stop" allowBlank="1" showErrorMessage="1" view="0">
       <formula1>"Linux,Windows,VMWare,VMHost,HPiLO,CiscoUCS,Primergy,HitachVSP,NetAPP,Zabbix,{Agent},{LocalFile}"</formula1>
     </dataValidation>
-    <dataValidation sqref="C15:C16" type="list" operator="equal" errorStyle="stop" allowBlank="1" showErrorMessage="1" view="0">
+    <dataValidation sqref="C15" type="list" operator="equal" errorStyle="stop" allowBlank="1" showErrorMessage="1" view="0">
       <formula1>"Linux,Windows,VMWare,VMHost,HPiLO,CiscoUCS,Primergy,HitachVSP,NetAPP,Zabbix,{Agent},{LocalFile}"</formula1>
     </dataValidation>
-    <dataValidation sqref="C17:C18" type="list" operator="equal" errorStyle="stop" allowBlank="1" showErrorMessage="1" view="0">
+    <dataValidation sqref="C16:C17" type="list" operator="equal" errorStyle="stop" allowBlank="1" showErrorMessage="1" view="0">
+      <formula1>"Linux,Windows,VMWare,VMHost,HPiLO,CiscoUCS,Primergy,HitachVSP,NetAPP,Zabbix,{Agent},{LocalFile}"</formula1>
+    </dataValidation>
+    <dataValidation sqref="C18:C19" type="list" operator="equal" errorStyle="stop" allowBlank="1" showErrorMessage="1" view="0">
       <formula1>"Linux,Windows,VMWare,VMHost,HPiLO,CiscoUCS,Primergy,HitachVSP,NetAPP,Zabbix,{Agent},{LocalFile}"</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1601521033" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1602202688" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -5274,16 +5383,279 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1601521033" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1601521033" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601521033" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601521033" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1602202688" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1602202688" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1602202688" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1602202688" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601521033" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1602202688" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="normal" zoomScale="105" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="19.863636" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="35" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="34" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="37" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="37" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="37" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="37" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="37" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="37" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="37" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="37" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="37" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="37" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="37" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="37" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="37" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="37" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="37" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="37" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="37" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="37" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="37" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="37"/>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="36"/>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="36"/>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="36"/>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="36"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="36"/>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="36"/>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="36"/>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="36"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="36"/>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="36"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="36"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="36"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="36"/>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="36"/>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="36"/>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="33"/>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="33"/>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="33"/>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="33"/>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="33"/>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="33"/>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="33"/>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="33"/>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="33"/>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="33"/>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="33"/>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="33"/>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="33"/>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="33"/>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="33"/>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="33"/>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="33"/>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="33"/>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="33"/>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="33"/>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="33"/>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="33"/>
+    </row>
+  </sheetData>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1602202688" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="0.787500" right="0.787500" top="0.787500" bottom="0.787500" header="0.393750" footer="0.393750"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
+  <headerFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1602202688" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1602202688" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1602202688" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1602202688" Id="1" type="0" value="0"/>
+      </ext>
+    </extLst>
+  </headerFooter>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1602202688" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
